--- a/Archetypes/stats_synpop.xlsx
+++ b/Archetypes/stats_synpop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\Archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2643576-3D4F-41B7-8321-36A657EE80F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4AD19E-4154-467D-8418-6FD9A319F085}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,7 +469,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
